--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>36.67</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.69</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>36.67</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.69</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>9</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>5</v>
+          <t>93.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -622,26 +672,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>000354</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>长盛城镇化主题混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.82</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>6</v>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,174 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -878,4 +879,250 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.11</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1134,7 +1135,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1145,17 +1146,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1165,14 +1186,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.79</v>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.55</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>46.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8734</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1181,14 +1224,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.13</v>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1018</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1197,14 +1262,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.05</v>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1213,13 +1300,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>80.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>5</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>2</v>
       </c>
       <c r="D5" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1381,7 +1382,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1392,17 +1393,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1412,14 +1433,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.01</v>
+          <t>001675</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1428,14 +1471,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>001676</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>江信同福灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0170</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>0.79</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="4">
@@ -1444,14 +1577,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>0.13</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="5">
@@ -1460,14 +1593,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="6">
@@ -1476,13 +1609,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>2</v>
       </c>
       <c r="D6" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1514,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1525,17 +1526,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1545,14 +1566,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.06</v>
       </c>
     </row>
     <row r="3">
@@ -1561,14 +1604,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.01</v>
       </c>
     </row>
     <row r="4">
@@ -1577,14 +1642,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.79</v>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1593,14 +1680,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.13</v>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1609,14 +1718,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.05</v>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1625,13 +1756,259 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.29</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>2</v>
       </c>
       <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
         <v>0.11</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,133 +457,509 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0968</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>4.29</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>5</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.01</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.79</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>26.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9832</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0556</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.96</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.9863</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.47</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0395</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011685</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011686</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信先进装备股票C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>80.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0085</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -610,7 +986,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -640,36 +1016,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005457</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>景顺长城量化小盘股票</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.45</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.08</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0264</t>
+          <t>0.0413</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -678,206 +1054,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000354</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛城镇化主题混合</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.85</t>
+          <t>92.43</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>5.76</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0202</t>
+          <t>0.0170</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>4.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27.94</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0804</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.63</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>27.94</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.70</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0277</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>000354</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长盛城镇化主题混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.38</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.28</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.12</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0233</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -912,7 +1118,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -942,36 +1148,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010201</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银汇理智增一年定期开放混合</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>40.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>43.24</t>
+          <t>46.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6005</t>
+          <t>1.8734</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -980,36 +1186,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.07</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1093</t>
+          <t>0.1018</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1018,36 +1224,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001656</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银汇理中国优势灵活配置混合</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.82</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1056,36 +1262,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>011686</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>创金合信先进装备股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>80.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1094,32 +1300,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>011685</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>创金合信先进装备股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.41</t>
+          <t>80.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1158,7 +1364,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1188,36 +1394,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>010201</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>农银汇理智增一年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>40.55</t>
+          <t>27.42</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>46.71</t>
+          <t>43.24</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.62</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.8734</t>
+          <t>0.6005</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1226,36 +1432,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001675</t>
+          <t>000535</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合A</t>
+          <t>长盛航天海工装备灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.15</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>81.07</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>3.47</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1018</t>
+          <t>0.1093</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1264,36 +1470,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>001656</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>农银汇理中国优势灵活配置混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.58</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>85.82</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.24</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0246</t>
+          <t>0.0454</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1302,36 +1508,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>011686</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信先进装备股票C</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>80.10</t>
+          <t>90.86</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0069</t>
+          <t>0.0215</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1340,32 +1546,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>011685</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>创金合信先进装备股票A</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.25</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>80.10</t>
+          <t>82.41</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.12</t>
+          <t>4.48</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0056</t>
+          <t>0.0112</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1378,6 +1584,176 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>27.94</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0277</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>000354</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长盛城镇化主题混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0233</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1404,7 +1780,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1434,36 +1810,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>001675</t>
+          <t>005457</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合A</t>
+          <t>景顺长城量化小盘股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>93.08</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>1.82</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0413</t>
+          <t>0.0264</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -1472,396 +1848,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001676</t>
+          <t>000354</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>江信同福灵活配置混合C</t>
+          <t>长盛城镇化主题混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.42</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>92.43</t>
+          <t>93.85</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>5.76</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0170</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>011229</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>26.06</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.9832</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004666</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>21.07</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>78.74</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>1.0556</t>
+          <t>0.0202</t>
         </is>
       </c>
       <c r="H3" t="n">
         <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011230</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信数字经济主题股票C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.96</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.74</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>7.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.9863</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>010052</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>长城久嘉创新成长灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.63</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>78.74</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1819</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>004332</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>恒生前海沪港深新兴产业精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.47</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>6.59</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0395</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>011685</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>80.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0259</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>011686</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>80.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.25</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0085</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>002564</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>新沃通盈灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.13</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.83</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0066</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -1875,144 +1891,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>4.29</v>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.06</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>5</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.01</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>5</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.79</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.13</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.11</v>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
-        <v>4.29</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>0.06</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>2.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>0.79</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.13</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C8" t="n">
         <v>2</v>
       </c>
       <c r="D8" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -600,6 +617,2754 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H72"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>38.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2922</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004666</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>25.06</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.2480</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6992</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6785</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.38</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6190</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>12.09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5924</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>12.54</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4402</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3808</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>630001</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华商领先企业混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>86.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3344</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010052</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城久嘉创新成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>84.47</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3068</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>013955</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.42</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2744</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008009</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2624</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000541</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华商创新成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.66</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1869</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1685</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1601</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001749</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>招商中国机遇股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.94</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1556</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>001143</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华商量化进取灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>83.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1314</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>大摩新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1032</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>平安科技创新3年封闭运作灵活配置混合型</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>630005</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华商动态阿尔法混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0828</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000609</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0827</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.75</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0803</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>013641</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>博道成长智航股票A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0725</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0716</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001457</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.79</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0691</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0657</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014267</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0621</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013642</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>博道成长智航股票C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>90.29</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0550</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>014329</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中融优势产业混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0475</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>002103</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>招商康泰灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.87</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>200001</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>长城久恒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0358</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>83.05</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>85.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0301</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.47</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0283</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>002703</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0261</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.02</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0235</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>98.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.03</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0145</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001732</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合E</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001731</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>015201</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.41</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0056</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>65.45</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>015200</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>创金合信动态平衡混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014330</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>中融优势产业混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>69.84</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>014268</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华商竞争力优选混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>85.31</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>970073</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>94.13</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>88.19</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014381</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>长城久源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>970074</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>东证融汇成长优选混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>004727</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005247</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国都量化精选混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>75.50</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>016050</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华商高端装备制造股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>87.76</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.33</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016070</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>华商新常态灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004726</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>先锋聚优灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.74</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016048</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华商新量化灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>87.71</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G70" t="n">
+        <v>0</v>
+      </c>
+      <c r="H70" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>016924</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>广发百发大数据策略价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.48</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -959,7 +3724,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1084,252 +3849,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>46.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8734</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001675</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>江信同福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1018</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001676</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>江信同福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011686</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011685</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1364,7 +3883,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1394,36 +3913,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010201</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银汇理智增一年定期开放混合</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>40.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>43.24</t>
+          <t>46.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6005</t>
+          <t>1.8734</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1432,36 +3951,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.07</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1093</t>
+          <t>0.1018</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1470,36 +3989,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001656</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银汇理中国优势灵活配置混合</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.82</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -1508,36 +4027,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>011686</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>创金合信先进装备股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>80.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1546,32 +4065,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>011685</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>创金合信先进装备股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.41</t>
+          <t>80.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -1584,6 +4103,252 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1753,7 +4518,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1885,7 +4650,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
+++ b/数据整理/stocks/A股/创业板/300101-振芯科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D2" t="n">
-        <v>9.550000000000001</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>71</v>
       </c>
       <c r="D3" t="n">
-        <v>4.29</v>
+        <v>9.550000000000001</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.06</v>
+        <v>4.29</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>2.01</v>
+        <v>0.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0.79</v>
+        <v>2.01</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
-        <v>0.13</v>
+        <v>0.79</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
+          <t>2021-Q1</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>2</v>
       </c>
       <c r="D9" t="n">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>2</v>
+      </c>
+      <c r="D10" t="n">
         <v>0.11</v>
       </c>
     </row>
@@ -616,7 +633,1905 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004818</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0968</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>004819</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保目标策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>36.67</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H46"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010595</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>43.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.3183</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>35.50</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.8282</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6275</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6077</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.92</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2007</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1974</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1568</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010596</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1312</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.91</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.56</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1273</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1188</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010322</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>大摩新兴产业股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.45</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1123</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>002707</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.76</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0752</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>501099</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>平安科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009008</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>平安科技创新混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0645</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013916</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011712</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0530</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010697</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0408</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.88</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>168207</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中融创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>84.06</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0316</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>016305</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>农银专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002885</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>大摩万众创新混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>7.46</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0269</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009009</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>平安科技创新混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.02</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0246</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0243</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>006401</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>620004</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>金元顺安价值增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>86.23</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>700004</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006201</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>景顺长城量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>80.70</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002020</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国都创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006402</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>先锋量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>015078</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>平安灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>016306</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>农银专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>162107</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014871</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>摩根士丹利华鑫科技领先灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.23</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010698</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中融行业先锋6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013917</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>中融成长先锋一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>013489</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002802</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发东财大数据精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>013479</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>金鹰先进制造股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3364,7 +5279,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3724,7 +5639,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3849,252 +5764,6 @@
       </c>
       <c r="H3" t="n">
         <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>002292</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>诺安益鑫灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>40.55</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>46.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.62</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.8734</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001675</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>江信同福灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1018</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001676</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>江信同福灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.58</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>92.54</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0246</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>011686</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.22</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>80.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0069</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011685</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信先进装备股票A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>80.10</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.12</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0056</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -4129,7 +5798,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -4159,36 +5828,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>010201</t>
+          <t>002292</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>农银汇理智增一年定期开放混合</t>
+          <t>诺安益鑫灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.42</t>
+          <t>40.55</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>43.24</t>
+          <t>46.71</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>4.62</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6005</t>
+          <t>1.8734</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -4197,36 +5866,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000535</t>
+          <t>001675</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>长盛航天海工装备灵活配置混合</t>
+          <t>江信同福灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.15</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.07</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.47</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.1093</t>
+          <t>0.1018</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4235,36 +5904,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001656</t>
+          <t>001676</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>农银汇理中国优势灵活配置混合</t>
+          <t>江信同福灵活配置混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.93</t>
+          <t>0.58</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.82</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.24</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0454</t>
+          <t>0.0246</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4273,36 +5942,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>011686</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>创金合信先进装备股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.86</t>
+          <t>80.10</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0215</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -4311,32 +5980,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>002292</t>
+          <t>011685</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>诺安益鑫灵活配置混合</t>
+          <t>创金合信先进装备股票A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>82.41</t>
+          <t>80.10</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.48</t>
+          <t>3.12</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0112</t>
+          <t>0.0056</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -4349,6 +6018,252 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>010201</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>农银汇理智增一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.42</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>43.24</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6005</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000535</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>长盛航天海工装备灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1093</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0454</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0215</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>002292</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安益鑫灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4518,7 +6433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4648,136 +6563,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>004818</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.73</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0968</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>004819</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国寿安保目标策略灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>36.67</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0177</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>